--- a/documents/FlyingMongeese_Deliverable_1_ProductBacklog.xlsx
+++ b/documents/FlyingMongeese_Deliverable_1_ProductBacklog.xlsx
@@ -1,12 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aaron/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="12700" yWindow="440" windowWidth="12900" windowHeight="15560" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -55,9 +71,6 @@
     <t>As a small business owner,I want to input any date into the software so that I can review data over my company for that specific date.</t>
   </si>
   <si>
-    <t>As a small business owner, I want to be able to create an account, so that I can keep my data private.</t>
-  </si>
-  <si>
     <t>As a small business owner, I want to be able to log in into my account, so that I can easily access my data.</t>
   </si>
   <si>
@@ -67,27 +80,34 @@
     <t>As a small business owner I want to be able to input sales reports from past years so they can be used in the application</t>
   </si>
   <si>
-    <t>As a small business owner I want to be able to create sub accounts so that my employes can have restricted access</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>As a small business owner I want to be able to have an unrestricted admin account to access all data</t>
+  </si>
+  <si>
+    <t>As a small business owner, I want to be able to create sub accounts, so that I can keep access to certain data restricted.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -96,7 +116,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -106,78 +126,352 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
-      <border/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="50.29"/>
-    <col customWidth="1" min="7" max="7" width="31.0"/>
+    <col min="2" max="2" width="50.33203125" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -198,16 +492,16 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" ht="51.75" customHeight="1">
+    <row r="2" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
@@ -217,16 +511,16 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>7</v>
@@ -238,16 +532,16 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" ht="39" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>7</v>
@@ -257,16 +551,16 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
@@ -276,16 +570,16 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" ht="39" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>7</v>
@@ -295,16 +589,16 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" ht="39" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>7</v>
@@ -314,16 +608,16 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
-        <v>16.0</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>7</v>
@@ -333,16 +627,16 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>7</v>
@@ -352,16 +646,16 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>7</v>
@@ -371,16 +665,16 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>7</v>
@@ -390,16 +684,16 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>7</v>
@@ -408,9 +702,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="5"/>
@@ -418,7 +712,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="10"/>
       <c r="C14" s="5"/>
@@ -426,7 +720,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="10"/>
       <c r="C15" s="5"/>
@@ -434,7 +728,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="10"/>
       <c r="C16" s="5"/>
@@ -442,7 +736,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="10"/>
       <c r="C17" s="5"/>
@@ -450,9 +744,9 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -464,12 +758,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:G1">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:F18">
-    <cfRule type="containsBlanks" dxfId="0" priority="2">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A18))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -478,6 +772,6 @@
       <formula>LEN(TRIM(A18))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/documents/FlyingMongeese_Deliverable_1_ProductBacklog.xlsx
+++ b/documents/FlyingMongeese_Deliverable_1_ProductBacklog.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aaron/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cadew\OneDrive\Documents\GitHub\Software2project\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7B859A-9536-421C-8251-BDFE82E4BE59}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12700" yWindow="440" windowWidth="12900" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="12705" yWindow="435" windowWidth="12900" windowHeight="15555" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -90,12 +91,15 @@
   </si>
   <si>
     <t>As a small business owner, I want to be able to create sub accounts, so that I can keep access to certain data restricted.</t>
+  </si>
+  <si>
+    <t>1,2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -191,6 +195,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -458,20 +465,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="50.33203125" customWidth="1"/>
+    <col min="2" max="2" width="50.28515625" customWidth="1"/>
     <col min="7" max="7" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +499,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>10</v>
       </c>
@@ -511,7 +518,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>11</v>
       </c>
@@ -532,7 +539,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" ht="39" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>12</v>
       </c>
@@ -551,7 +558,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>13</v>
       </c>
@@ -570,7 +577,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="39" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>14</v>
       </c>
@@ -589,14 +596,16 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="39" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="D7" s="1">
         <v>6</v>
       </c>
@@ -608,14 +617,16 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>16</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="D8" s="1">
         <v>7</v>
       </c>
@@ -627,14 +638,16 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>17</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="D9" s="1">
         <v>8</v>
       </c>
@@ -646,7 +659,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>18</v>
       </c>
@@ -665,7 +678,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>19</v>
       </c>
@@ -684,14 +697,16 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>20</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="D12" s="1">
         <v>10</v>
       </c>
@@ -702,7 +717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -712,7 +727,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="10"/>
       <c r="C14" s="5"/>
@@ -720,7 +735,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="10"/>
       <c r="C15" s="5"/>
@@ -728,7 +743,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="10"/>
       <c r="C16" s="5"/>
@@ -736,7 +751,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="10"/>
       <c r="C17" s="5"/>
@@ -744,7 +759,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>

--- a/documents/FlyingMongeese_Deliverable_1_ProductBacklog.xlsx
+++ b/documents/FlyingMongeese_Deliverable_1_ProductBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cadew\OneDrive\Documents\GitHub\Software2project\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7B859A-9536-421C-8251-BDFE82E4BE59}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BFF28C-1429-40BB-9EC5-10AB690409D9}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12705" yWindow="435" windowWidth="12900" windowHeight="15555" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/documents/FlyingMongeese_Deliverable_1_ProductBacklog.xlsx
+++ b/documents/FlyingMongeese_Deliverable_1_ProductBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cadew\OneDrive\Documents\GitHub\Software2project\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BFF28C-1429-40BB-9EC5-10AB690409D9}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3866A0A0-AEA8-4370-AB64-F6E69C1DC96F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12705" yWindow="435" windowWidth="12900" windowHeight="15555" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>W</t>
-  </si>
-  <si>
-    <t>TBD</t>
   </si>
   <si>
     <t>As a small business owner,I want to be able to predict the amount of income on a certain day so that I can account for potential sales</t>
@@ -469,7 +466,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -513,7 +510,7 @@
       <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1">
         <v>8</v>
       </c>
       <c r="G2" s="2"/>
@@ -523,7 +520,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6">
@@ -532,7 +529,7 @@
       <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="1">
         <v>8</v>
       </c>
       <c r="G3" s="7"/>
@@ -544,7 +541,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="1">
@@ -553,8 +550,8 @@
       <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
+      <c r="F4" s="1">
+        <v>6</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -563,7 +560,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="1">
@@ -572,8 +569,8 @@
       <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
+      <c r="F5" s="1">
+        <v>4</v>
       </c>
       <c r="G5" s="2"/>
     </row>
@@ -582,7 +579,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="1">
@@ -591,8 +588,8 @@
       <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
+      <c r="F6" s="1">
+        <v>4</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -601,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -612,8 +609,8 @@
       <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
+      <c r="F7" s="1">
+        <v>5</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -622,19 +619,19 @@
         <v>16</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="D8" s="1">
         <v>7</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>8</v>
+      <c r="F8" s="1">
+        <v>2</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -643,10 +640,10 @@
         <v>17</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1">
         <v>8</v>
@@ -654,8 +651,8 @@
       <c r="E9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>8</v>
+      <c r="F9" s="1">
+        <v>2</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -664,7 +661,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="1">
@@ -673,8 +670,8 @@
       <c r="E10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>8</v>
+      <c r="F10" s="1">
+        <v>2</v>
       </c>
       <c r="G10" s="2"/>
     </row>
@@ -683,7 +680,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="1">
@@ -692,8 +689,8 @@
       <c r="E11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>8</v>
+      <c r="F11" s="1">
+        <v>6</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -702,10 +699,10 @@
         <v>20</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1">
         <v>10</v>
@@ -713,13 +710,13 @@
       <c r="E12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>8</v>
+      <c r="F12" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="5"/>
@@ -761,14 +758,14 @@
     </row>
     <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="1" t="s">
-        <v>8</v>
+      <c r="F18" s="1">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
